--- a/uploads/timetables/timetable_CSE.xlsx
+++ b/uploads/timetables/timetable_CSE.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,13 +37,8 @@
       <b val="1"/>
       <sz val="12"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FF0000"/>
-      <sz val="12"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -58,8 +53,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFDAB9"/>
-        <bgColor rgb="00FFDAB9"/>
+        <fgColor rgb="00E6E6FA"/>
+        <bgColor rgb="00E6E6FA"/>
       </patternFill>
     </fill>
     <fill>
@@ -70,8 +65,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6E6FA"/>
-        <bgColor rgb="00E6E6FA"/>
+        <fgColor rgb="0087CEFA"/>
+        <bgColor rgb="0087CEFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFDAB9"/>
+        <bgColor rgb="00FFDAB9"/>
       </patternFill>
     </fill>
     <fill>
@@ -82,20 +83,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0098FB98"/>
-        <bgColor rgb="0098FB98"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFB6C1"/>
         <bgColor rgb="00FFB6C1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0087CEFA"/>
-        <bgColor rgb="0087CEFA"/>
+        <fgColor rgb="0098FB98"/>
+        <bgColor rgb="0098FB98"/>
       </patternFill>
     </fill>
     <fill>
@@ -108,12 +103,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00F0F0F0"/>
         <bgColor rgb="00F0F0F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE0E0"/>
-        <bgColor rgb="00FFE0E0"/>
       </patternFill>
     </fill>
   </fills>
@@ -163,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -179,10 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -207,30 +196,23 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -738,341 +720,341 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>B1 LEC
+C101
+Dr. Sandesh P</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>CS163 LEC
+C101
+Dr. Prabhu Prasad</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="4" t="n"/>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M2" s="7" t="inlineStr"/>
+      <c r="N2" s="7" t="inlineStr"/>
+      <c r="O2" s="8" t="inlineStr">
+        <is>
           <t>B2 LEC
 C101
 Dr Pramod Y</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="P2" s="3" t="n"/>
+      <c r="Q2" s="4" t="n"/>
+      <c r="R2" s="7" t="inlineStr"/>
+      <c r="S2" s="7" t="inlineStr"/>
+      <c r="T2" s="7" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>HS204 / HS153 LEC
+C101
+Dr. Anusree Kini</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="10" t="inlineStr">
+        <is>
+          <t>CS162 LEC
+C101
+Dr. Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M3" s="7" t="inlineStr"/>
+      <c r="N3" s="11" t="inlineStr">
+        <is>
+          <t>CS164 LAB
+L106+L107
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="4" t="n"/>
+      <c r="R3" s="7" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>B1 TUT
+C101
+Dr. Sandesh P</t>
+        </is>
+      </c>
+      <c r="T3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>CS164 LEC
+C101
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>CS163 LEC
+C101
+Dr. Prabhu Prasad</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="inlineStr"/>
+      <c r="N4" s="12" t="inlineStr">
+        <is>
+          <t>CS165 LAB
+L106+L107
+Dr. Animesh Roy</t>
+        </is>
+      </c>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="3" t="n"/>
+      <c r="Q4" s="4" t="n"/>
+      <c r="R4" s="10" t="inlineStr">
+        <is>
+          <t>CS162 LEC
+C101
+Dr. Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="S4" s="3" t="n"/>
+      <c r="T4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>CS163 TUT
+C101
+Dr. Prabhu Prasad</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="7" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>HS204 / HS153 LEC
+C101
+Dr. Anusree Kini</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M5" s="8" t="inlineStr">
+        <is>
+          <t>B2 LEC
+C101
+Dr Pramod Y</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="4" t="n"/>
+      <c r="P5" s="7" t="inlineStr"/>
+      <c r="Q5" s="12" t="inlineStr">
+        <is>
+          <t>CS165 LEC
+C101
+Dr. Animesh Roy</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="n"/>
+      <c r="S5" s="4" t="n"/>
+      <c r="T5" s="7" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>B2 TUT
+C101
+Dr Pramod Y</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="7" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>B1 LEC
 C101
 Dr. Sandesh P</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M2" s="7" t="inlineStr">
-        <is>
-          <t>HS204 / HS153 LEC
-C101
-Dr. Anusree Kini</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="n"/>
-      <c r="O2" s="4" t="n"/>
-      <c r="P2" s="8" t="inlineStr"/>
-      <c r="Q2" s="9" t="inlineStr">
-        <is>
-          <t>CS164 LAB
-L106+L107
-Prof. CB Akki</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="n"/>
-      <c r="S2" s="3" t="n"/>
-      <c r="T2" s="4" t="n"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>B2 LEC
-C101
-Dr Pramod Y</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="10" t="inlineStr">
-        <is>
-          <t>CS162 LEC
-C101
-Dr. Dibyajyothi</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M3" s="8" t="inlineStr"/>
-      <c r="N3" s="8" t="inlineStr"/>
-      <c r="O3" s="11" t="inlineStr">
-        <is>
-          <t>CS163 TUT
-C101
-Dr. Prabhu Prasad</t>
-        </is>
-      </c>
-      <c r="P3" s="4" t="n"/>
-      <c r="Q3" s="8" t="inlineStr"/>
-      <c r="R3" s="12" t="inlineStr">
-        <is>
-          <t>CS165 LEC
-C101
-Dr. Animesh Roy</t>
-        </is>
-      </c>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="4" t="n"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>B2 TUT
-C101
-Dr Pramod Y</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="11" t="inlineStr">
-        <is>
-          <t>CS163 LEC
-C101
-Dr. Prabhu Prasad</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M4" s="12" t="inlineStr">
-        <is>
-          <t>CS165 LAB
-L106+L107
-Dr. Animesh Roy</t>
-        </is>
-      </c>
-      <c r="N4" s="3" t="n"/>
-      <c r="O4" s="3" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="9" t="inlineStr">
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M6" s="11" t="inlineStr">
         <is>
           <t>CS164 LEC
 C101
 Prof. CB Akki</t>
         </is>
       </c>
-      <c r="R4" s="3" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="8" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>CS164 LEC
-C101
-Prof. CB Akki</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr"/>
-      <c r="G5" s="6" t="inlineStr">
-        <is>
-          <t>B1 TUT
-C101
-Dr. Sandesh P</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M5" s="11" t="inlineStr">
-        <is>
-          <t>CS163 LEC
-C101
-Dr. Prabhu Prasad</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="n"/>
-      <c r="O5" s="4" t="n"/>
-      <c r="P5" s="8" t="inlineStr"/>
-      <c r="Q5" s="10" t="inlineStr">
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="4" t="n"/>
+      <c r="P6" s="7" t="inlineStr"/>
+      <c r="Q6" s="10" t="inlineStr">
         <is>
           <t>CS162 TUT
 C101
 Dr. Dibyajyothi</t>
         </is>
       </c>
-      <c r="R5" s="4" t="n"/>
-      <c r="S5" s="8" t="inlineStr"/>
-      <c r="T5" s="8" t="inlineStr"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>B1 LEC
-C101
-Dr. Sandesh P</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="inlineStr"/>
-      <c r="G6" s="8" t="inlineStr"/>
-      <c r="H6" s="8" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M6" s="7" t="inlineStr">
-        <is>
-          <t>HS204 / HS153 LEC
-C101
-Dr. Anusree Kini</t>
-        </is>
-      </c>
-      <c r="N6" s="3" t="n"/>
-      <c r="O6" s="4" t="n"/>
-      <c r="P6" s="8" t="inlineStr"/>
-      <c r="Q6" s="10" t="inlineStr">
-        <is>
-          <t>CS162 LEC
-C101
-Dr. Dibyajyothi</t>
-        </is>
-      </c>
-      <c r="R6" s="3" t="n"/>
-      <c r="S6" s="4" t="n"/>
-      <c r="T6" s="8" t="inlineStr"/>
+      <c r="R6" s="4" t="n"/>
+      <c r="S6" s="7" t="inlineStr"/>
+      <c r="T6" s="7" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="13" t="inlineStr">
@@ -1231,24 +1213,24 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="F5:H5"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="Q2:T2"/>
     <mergeCell ref="M6:O6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="R4:T4"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="M2:O2"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1399,343 +1381,343 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr"/>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>HS204 / HS153 LEC
+C102
+Dr. Anusree Kini</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr"/>
+      <c r="G2" s="7" t="inlineStr"/>
+      <c r="H2" s="7" t="inlineStr"/>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M2" s="7" t="inlineStr"/>
+      <c r="N2" s="10" t="inlineStr">
         <is>
           <t>CS162 TUT
 C102
 Dr. Dibyajyothi</t>
         </is>
       </c>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="11" t="inlineStr">
+      <c r="O2" s="4" t="n"/>
+      <c r="P2" s="7" t="inlineStr"/>
+      <c r="Q2" s="11" t="inlineStr">
+        <is>
+          <t>CS164 LAB
+L106+L107
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="n"/>
+      <c r="S2" s="3" t="n"/>
+      <c r="T2" s="4" t="n"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>CS163 LEC
 C102
 Dr. Prabhu Prasad</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M2" s="12" t="inlineStr">
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr"/>
+      <c r="G3" s="7" t="inlineStr"/>
+      <c r="H3" s="7" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M3" s="10" t="inlineStr">
+        <is>
+          <t>CS162 LEC
+C101
+Dr. Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="4" t="n"/>
+      <c r="P3" s="7" t="inlineStr"/>
+      <c r="Q3" s="8" t="inlineStr">
+        <is>
+          <t>B2 LEC
+C102
+Dr Pramod Y</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="n"/>
+      <c r="S3" s="4" t="n"/>
+      <c r="T3" s="7" t="inlineStr"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>CS165 LEC
+C102
+Dr. Animesh Roy</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>B1 LEC
+C102
+Dr. Sandesh P</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="inlineStr"/>
+      <c r="N4" s="7" t="inlineStr"/>
+      <c r="O4" s="8" t="inlineStr">
+        <is>
+          <t>B2 TUT
+C101
+Dr Pramod Y</t>
+        </is>
+      </c>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="11" t="inlineStr">
+        <is>
+          <t>CS164 LEC
+C102
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="n"/>
+      <c r="S4" s="4" t="n"/>
+      <c r="T4" s="7" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>B1 LEC
+C102
+Dr. Sandesh P</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="10" t="inlineStr">
+        <is>
+          <t>CS162 LEC
+C102
+Dr. Dibyajyothi</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M5" s="12" t="inlineStr">
         <is>
           <t>CS165 LAB
 L106+L107
 Dr. Animesh Roy</t>
         </is>
       </c>
-      <c r="N2" s="3" t="n"/>
-      <c r="O2" s="3" t="n"/>
-      <c r="P2" s="4" t="n"/>
-      <c r="Q2" s="10" t="inlineStr">
-        <is>
-          <t>CS162 LEC
-C101
-Dr. Dibyajyothi</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="n"/>
-      <c r="S2" s="4" t="n"/>
-      <c r="T2" s="8" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>CS165 LEC
+      <c r="N5" s="3" t="n"/>
+      <c r="O5" s="3" t="n"/>
+      <c r="P5" s="4" t="n"/>
+      <c r="Q5" s="11" t="inlineStr">
+        <is>
+          <t>CS164 LEC
 C102
-Dr. Animesh Roy</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>B1 LEC
+Prof. CB Akki</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="n"/>
+      <c r="S5" s="4" t="n"/>
+      <c r="T5" s="7" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>CS163 LEC
 C102
-Dr. Sandesh P</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M3" s="7" t="inlineStr">
+Dr. Prabhu Prasad</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
+        <is>
+          <t>B2 LEC
+C102
+Dr Pramod Y</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M6" s="9" t="inlineStr">
         <is>
           <t>HS204 / HS153 LEC
 C102
 Dr. Anusree Kini</t>
         </is>
       </c>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="4" t="n"/>
-      <c r="P3" s="8" t="inlineStr"/>
-      <c r="Q3" s="10" t="inlineStr">
-        <is>
-          <t>CS162 LEC
+      <c r="N6" s="3" t="n"/>
+      <c r="O6" s="4" t="n"/>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>B1 TUT
 C102
-Dr. Dibyajyothi</t>
-        </is>
-      </c>
-      <c r="R3" s="3" t="n"/>
-      <c r="S3" s="4" t="n"/>
-      <c r="T3" s="8" t="inlineStr"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="9" t="inlineStr">
-        <is>
-          <t>CS164 LEC
-C102
-Prof. CB Akki</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="inlineStr">
-        <is>
-          <t>HS204 / HS153 LEC
-C102
-Dr. Anusree Kini</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>B2 TUT
-C101
-Dr Pramod Y</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="8" t="inlineStr"/>
-      <c r="P4" s="11" t="inlineStr">
-        <is>
-          <t>CS163 LEC
-C102
-Dr. Prabhu Prasad</t>
-        </is>
-      </c>
-      <c r="Q4" s="3" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="8" t="inlineStr"/>
-      <c r="T4" s="8" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="inlineStr"/>
-      <c r="C5" s="8" t="inlineStr"/>
-      <c r="D5" s="8" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>B2 LEC
-C102
-Dr Pramod Y</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M5" s="9" t="inlineStr">
-        <is>
-          <t>CS164 LAB
-L106+L107
-Prof. CB Akki</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="n"/>
-      <c r="O5" s="3" t="n"/>
-      <c r="P5" s="4" t="n"/>
-      <c r="Q5" s="8" t="inlineStr"/>
-      <c r="R5" s="11" t="inlineStr">
+Dr. Sandesh P</t>
+        </is>
+      </c>
+      <c r="Q6" s="4" t="n"/>
+      <c r="R6" s="6" t="inlineStr">
         <is>
           <t>CS163 TUT
 C102
 Dr. Prabhu Prasad</t>
         </is>
       </c>
-      <c r="S5" s="4" t="n"/>
-      <c r="T5" s="8" t="inlineStr"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>B2 LEC
-C102
-Dr Pramod Y</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>B1 LEC
-C101
-Dr. Sandesh P</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M6" s="8" t="inlineStr"/>
-      <c r="N6" s="8" t="inlineStr"/>
-      <c r="O6" s="6" t="inlineStr">
-        <is>
-          <t>B1 TUT
-C102
-Dr. Sandesh P</t>
-        </is>
-      </c>
-      <c r="P6" s="4" t="n"/>
-      <c r="Q6" s="9" t="inlineStr">
-        <is>
-          <t>CS164 LEC
-C102
-Prof. CB Akki</t>
-        </is>
-      </c>
-      <c r="R6" s="3" t="n"/>
       <c r="S6" s="4" t="n"/>
-      <c r="T6" s="8" t="inlineStr"/>
+      <c r="T6" s="7" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="13" t="inlineStr">
@@ -1894,25 +1876,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Q5:S5"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="R6:S6"/>
     <mergeCell ref="M3:O3"/>
+    <mergeCell ref="O4:P4"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="M5:P5"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="F4:H4"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="P4:R4"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2062,301 +2044,301 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>HS205 LEC
+C104
+Dr. Jolly Thomas, IIT Dharwad</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="4" t="n"/>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
+        <is>
+          <t>CS310 LEC
+C102
+Dr. Pramod</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="4" t="n"/>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M2" s="9" t="inlineStr">
+        <is>
+          <t>CS310 LAB
+L106+L107
+Dr. Pramod</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="n"/>
+      <c r="O2" s="3" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="11" t="inlineStr">
+        <is>
+          <t>CS206 LEC
+C102
+Dr. Pavan</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="n"/>
+      <c r="S2" s="4" t="n"/>
+      <c r="T2" s="7" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>CS206 TUT
+C104
+Dr. Pavan</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="7" t="inlineStr"/>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr"/>
+      <c r="G3" s="12" t="inlineStr">
+        <is>
+          <t>CS301 TUT
+C102
+Dr. Vivekraj</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M3" s="9" t="inlineStr">
+        <is>
+          <t>CS310 LEC
+C102
+Dr. Pramod</t>
+        </is>
+      </c>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="4" t="n"/>
+      <c r="P3" s="7" t="inlineStr"/>
+      <c r="Q3" s="7" t="inlineStr"/>
+      <c r="R3" s="12" t="inlineStr">
         <is>
           <t>CS301 LEC
 C104
 Dr. Vivekraj</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>HS205 LEC
 C104
 Dr. Jolly Thomas, IIT Dharwad</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="4" t="n"/>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="inlineStr"/>
-      <c r="N2" s="8" t="inlineStr"/>
-      <c r="O2" s="8" t="inlineStr"/>
-      <c r="P2" s="10" t="inlineStr">
-        <is>
-          <t>MA202 LEC
-C102
-Dr. Anand Barangi</t>
-        </is>
-      </c>
-      <c r="Q2" s="3" t="n"/>
-      <c r="R2" s="4" t="n"/>
-      <c r="S2" s="8" t="inlineStr"/>
-      <c r="T2" s="8" t="inlineStr"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="8" t="inlineStr"/>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>CS204 LEC
+C104
+Dr. Suvadeep</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M4" s="6" t="inlineStr">
+        <is>
+          <t>CS204 LAB
+L206+L207
+Dr. Suvadeep</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="11" t="inlineStr">
+        <is>
+          <t>CS206 LEC
+C104
+Dr. Pavan</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="n"/>
+      <c r="S4" s="4" t="n"/>
+      <c r="T4" s="7" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr">
         <is>
           <t>CS310 TUT
 C104
 Dr. Pramod</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>CS310 LEC
-C104
-Dr. Pramod</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M3" s="8" t="inlineStr"/>
-      <c r="N3" s="12" t="inlineStr">
-        <is>
-          <t>CS301 TUT
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="7" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>CS301 LEC
 C104
 Dr. Vivekraj</t>
         </is>
       </c>
-      <c r="O3" s="4" t="n"/>
-      <c r="P3" s="10" t="inlineStr">
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M5" s="7" t="inlineStr"/>
+      <c r="N5" s="7" t="inlineStr"/>
+      <c r="O5" s="10" t="inlineStr">
+        <is>
+          <t>MA202 LEC
+C104
+Dr. Anand Barangi</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="4" t="n"/>
+      <c r="R5" s="10" t="inlineStr">
         <is>
           <t>MA202 TUT
 C104
 Dr. Anand Barangi</t>
         </is>
       </c>
-      <c r="Q3" s="4" t="n"/>
-      <c r="R3" s="8" t="inlineStr"/>
-      <c r="S3" s="8" t="inlineStr"/>
-      <c r="T3" s="8" t="inlineStr"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>HS205 LEC
-C104
-Dr. Jolly Thomas, IIT Dharwad</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr">
-        <is>
-          <t>CS206 LEC
-C104
-Dr. Pavan</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M4" s="11" t="inlineStr">
-        <is>
-          <t>CS204 LEC
-C102
-Dr. Suvadeep</t>
-        </is>
-      </c>
-      <c r="N4" s="3" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="8" t="inlineStr"/>
-      <c r="Q4" s="9" t="inlineStr">
-        <is>
-          <t>CS206 TUT
-C104
-Dr. Pavan</t>
-        </is>
-      </c>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="8" t="inlineStr"/>
-      <c r="T4" s="8" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>CS301 LEC
-C102
-Dr. Vivekraj</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="11" t="inlineStr">
+      <c r="S5" s="4" t="n"/>
+      <c r="T5" s="7" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="inlineStr"/>
+      <c r="C6" s="7" t="inlineStr"/>
+      <c r="D6" s="7" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="inlineStr">
         <is>
           <t>CS204 LEC
 C104
 Dr. Suvadeep</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M5" s="7" t="inlineStr">
-        <is>
-          <t>CS310 LAB
-L206+L207
-Dr. Pramod</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="n"/>
-      <c r="O5" s="3" t="n"/>
-      <c r="P5" s="4" t="n"/>
-      <c r="Q5" s="11" t="inlineStr">
-        <is>
-          <t>CS204 LAB
-L106+L107
-Dr. Suvadeep</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="n"/>
-      <c r="S5" s="3" t="n"/>
-      <c r="T5" s="4" t="n"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>CS310 LEC
-C104
-Dr. Pramod</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>CS206 LEC
-C102
-Dr. Pavan</t>
-        </is>
-      </c>
       <c r="G6" s="3" t="n"/>
       <c r="H6" s="4" t="n"/>
       <c r="I6" s="5" t="inlineStr">
@@ -2379,8 +2361,8 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="M6" s="8" t="inlineStr"/>
-      <c r="N6" s="8" t="inlineStr"/>
+      <c r="M6" s="7" t="inlineStr"/>
+      <c r="N6" s="7" t="inlineStr"/>
       <c r="O6" s="10" t="inlineStr">
         <is>
           <t>MA202 LEC
@@ -2390,9 +2372,9 @@
       </c>
       <c r="P6" s="3" t="n"/>
       <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="8" t="inlineStr"/>
-      <c r="S6" s="8" t="inlineStr"/>
-      <c r="T6" s="8" t="inlineStr"/>
+      <c r="R6" s="7" t="inlineStr"/>
+      <c r="S6" s="7" t="inlineStr"/>
+      <c r="T6" s="7" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="13" t="inlineStr">
@@ -2533,24 +2515,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
     <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="G3:H3"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2562,7 +2544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2700,23 +2682,23 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr"/>
-      <c r="C2" s="8" t="inlineStr"/>
-      <c r="D2" s="8" t="inlineStr"/>
+      <c r="B2" s="10" t="inlineStr">
+        <is>
+          <t>MA202 TUT
+H109
+Dr. Anand Barangi</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="7" t="inlineStr"/>
       <c r="E2" s="5" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>CS310 LEC
-H109
-Dr. Abdul Wahid</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="n"/>
-      <c r="H2" s="4" t="n"/>
+      <c r="F2" s="7" t="inlineStr"/>
+      <c r="G2" s="7" t="inlineStr"/>
+      <c r="H2" s="7" t="inlineStr"/>
       <c r="I2" s="5" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -2737,230 +2719,230 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="M2" s="9" t="inlineStr">
-        <is>
-          <t>CS206 LEC
-C102
-Dr. Pavan</t>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t>CS204 LEC
+C104
+Dr. Suvadeep</t>
         </is>
       </c>
       <c r="N2" s="3" t="n"/>
       <c r="O2" s="4" t="n"/>
-      <c r="P2" s="8" t="inlineStr"/>
-      <c r="Q2" s="11" t="inlineStr">
+      <c r="P2" s="7" t="inlineStr"/>
+      <c r="Q2" s="12" t="inlineStr">
+        <is>
+          <t>CS301 LEC
+C104
+Dr. Vivekraj</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="n"/>
+      <c r="S2" s="4" t="n"/>
+      <c r="T2" s="7" t="inlineStr"/>
+    </row>
+    <row r="3" ht="40" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>CS301 LEC
+H109
+Dr. Vivekraj</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="inlineStr">
+        <is>
+          <t>CS310 LEC
+C104
+Dr. Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M3" s="7" t="inlineStr"/>
+      <c r="N3" s="10" t="inlineStr">
+        <is>
+          <t>MA202 LEC
+C104
+Dr. Anand Barangi</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="4" t="n"/>
+      <c r="Q3" s="6" t="inlineStr">
         <is>
           <t>CS204 LAB
 L206+L207
 Dr. Suvadeep</t>
         </is>
       </c>
-      <c r="R2" s="3" t="n"/>
-      <c r="S2" s="3" t="n"/>
-      <c r="T2" s="4" t="n"/>
-    </row>
-    <row r="3" ht="40" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="R3" s="3" t="n"/>
+      <c r="S3" s="3" t="n"/>
+      <c r="T3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr"/>
+      <c r="C4" s="7" t="inlineStr"/>
+      <c r="D4" s="7" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr"/>
+      <c r="G4" s="11" t="inlineStr">
+        <is>
+          <t>CS206 TUT
+H109
+Dr. Pavan</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M4" s="9" t="inlineStr">
+        <is>
+          <t>CS310 LEC
+C102
+Dr. Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="4" t="n"/>
+      <c r="P4" s="7" t="inlineStr"/>
+      <c r="Q4" s="9" t="inlineStr">
+        <is>
+          <t>CS310 LAB
+L206+L207
+Dr. Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="n"/>
+      <c r="S4" s="3" t="n"/>
+      <c r="T4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>HS205 LEC
 H109
 Dr. Jolly Thomas, IIT Dharwad</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="11" t="inlineStr">
-        <is>
-          <t>CS204 LEC
-H109
-Dr. Suvadeep</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M3" s="8" t="inlineStr"/>
-      <c r="N3" s="7" t="inlineStr">
-        <is>
-          <t>CS310 LEC
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>CS310 TUT
 H109
 Dr. Abdul Wahid</t>
         </is>
       </c>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="4" t="n"/>
-      <c r="Q3" s="8" t="inlineStr"/>
-      <c r="R3" s="12" t="inlineStr">
-        <is>
-          <t>CS301 LEC
-C104
-Dr. Vivekraj</t>
-        </is>
-      </c>
-      <c r="S3" s="3" t="n"/>
-      <c r="T3" s="4" t="n"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="8" t="inlineStr"/>
-      <c r="C4" s="8" t="inlineStr"/>
-      <c r="D4" s="8" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
-        <is>
-          <t>HS205 LEC
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="7" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M5" s="7" t="inlineStr"/>
+      <c r="N5" s="7" t="inlineStr"/>
+      <c r="O5" s="11" t="inlineStr">
+        <is>
+          <t>CS206 LEC
 H109
-Dr. Jolly Thomas, IIT Dharwad</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M4" s="8" t="inlineStr"/>
-      <c r="N4" s="8" t="inlineStr"/>
-      <c r="O4" s="8" t="inlineStr"/>
-      <c r="P4" s="12" t="inlineStr">
+Dr. Pavan</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="n"/>
+      <c r="Q5" s="4" t="n"/>
+      <c r="R5" s="12" t="inlineStr">
         <is>
           <t>CS301 TUT
 H109
 Dr. Vivekraj</t>
         </is>
       </c>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="11" t="inlineStr">
-        <is>
-          <t>CS204 LEC
-H109
-Dr. Suvadeep</t>
-        </is>
-      </c>
-      <c r="S4" s="3" t="n"/>
-      <c r="T4" s="4" t="n"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="inlineStr"/>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>CS206 TUT
-C104
-Dr. Pavan</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>CS301 LEC
-H109
-Dr. Vivekraj</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M5" s="8" t="inlineStr"/>
-      <c r="N5" s="7" t="inlineStr">
-        <is>
-          <t>CS310 TUT
-C102
-Dr. Abdul Wahid</t>
-        </is>
-      </c>
-      <c r="O5" s="4" t="n"/>
-      <c r="P5" s="10" t="inlineStr">
-        <is>
-          <t>MA202 LEC
-C104
-Dr. Anand Barangi</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="n"/>
-      <c r="R5" s="4" t="n"/>
-      <c r="S5" s="8" t="inlineStr"/>
-      <c r="T5" s="8" t="inlineStr"/>
+      <c r="S5" s="4" t="n"/>
+      <c r="T5" s="7" t="inlineStr"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -2968,23 +2950,29 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>MA202 TUT
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>HS205 LEC
+C104
+Dr. Jolly Thomas, IIT Dharwad</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="10" t="inlineStr">
+        <is>
+          <t>MA202 LEC
 H109
 Dr. Anand Barangi</t>
         </is>
       </c>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="8" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="8" t="inlineStr"/>
-      <c r="G6" s="8" t="inlineStr"/>
-      <c r="H6" s="8" t="inlineStr"/>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="4" t="n"/>
       <c r="I6" s="5" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -3005,8 +2993,8 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="M6" s="8" t="inlineStr"/>
-      <c r="N6" s="9" t="inlineStr">
+      <c r="M6" s="7" t="inlineStr"/>
+      <c r="N6" s="11" t="inlineStr">
         <is>
           <t>CS206 LEC
 H109
@@ -3015,231 +3003,173 @@
       </c>
       <c r="O6" s="3" t="n"/>
       <c r="P6" s="4" t="n"/>
-      <c r="Q6" s="8" t="inlineStr"/>
-      <c r="R6" s="10" t="inlineStr">
-        <is>
-          <t>MA202 LEC
+      <c r="Q6" s="7" t="inlineStr"/>
+      <c r="R6" s="6" t="inlineStr">
+        <is>
+          <t>CS204 LEC
 C104
-Dr. Anand Barangi</t>
+Dr. Suvadeep</t>
         </is>
       </c>
       <c r="S6" s="3" t="n"/>
       <c r="T6" s="4" t="n"/>
     </row>
+    <row r="11">
+      <c r="A11" s="13" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+    </row>
     <row r="13">
-      <c r="A13" s="23" t="inlineStr">
-        <is>
-          <t>Unscheduled Components</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="24" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B15" s="24" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C15" s="24" t="inlineStr">
+      <c r="A13" s="14" t="inlineStr">
+        <is>
+          <t>Subject Code</t>
+        </is>
+      </c>
+      <c r="B13" s="14" t="inlineStr">
+        <is>
+          <t>Subject Name</t>
+        </is>
+      </c>
+      <c r="C13" s="14" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
       </c>
-      <c r="D15" s="24" t="inlineStr">
-        <is>
-          <t>Component</t>
-        </is>
-      </c>
-      <c r="E15" s="24" t="inlineStr">
-        <is>
-          <t>Sessions</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="25" t="inlineStr">
+      <c r="D13" s="14" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="25" customHeight="1">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>MA202</t>
+        </is>
+      </c>
+      <c r="B14" s="15" t="inlineStr">
+        <is>
+          <t>Linear Algebra</t>
+        </is>
+      </c>
+      <c r="C14" s="15" t="inlineStr">
+        <is>
+          <t>Dr. Anand Barangi</t>
+        </is>
+      </c>
+      <c r="D14" s="16" t="inlineStr"/>
+    </row>
+    <row r="15" ht="25" customHeight="1">
+      <c r="A15" s="15" t="inlineStr">
+        <is>
+          <t>CS206</t>
+        </is>
+      </c>
+      <c r="B15" s="15" t="inlineStr">
+        <is>
+          <t>Theory of Computing</t>
+        </is>
+      </c>
+      <c r="C15" s="15" t="inlineStr">
+        <is>
+          <t>Dr. Pavan</t>
+        </is>
+      </c>
+      <c r="D15" s="17" t="inlineStr"/>
+    </row>
+    <row r="16" ht="25" customHeight="1">
+      <c r="A16" s="15" t="inlineStr">
+        <is>
+          <t>CS204</t>
+        </is>
+      </c>
+      <c r="B16" s="15" t="inlineStr">
+        <is>
+          <t>Operating Systems</t>
+        </is>
+      </c>
+      <c r="C16" s="15" t="inlineStr">
+        <is>
+          <t>Dr. Suvadeep</t>
+        </is>
+      </c>
+      <c r="D16" s="18" t="inlineStr"/>
+    </row>
+    <row r="17" ht="25" customHeight="1">
+      <c r="A17" s="15" t="inlineStr">
+        <is>
+          <t>CS301</t>
+        </is>
+      </c>
+      <c r="B17" s="15" t="inlineStr">
+        <is>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="C17" s="15" t="inlineStr">
+        <is>
+          <t>Dr. Vivekraj</t>
+        </is>
+      </c>
+      <c r="D17" s="19" t="inlineStr"/>
+    </row>
+    <row r="18" ht="25" customHeight="1">
+      <c r="A18" s="15" t="inlineStr">
         <is>
           <t>CS310</t>
         </is>
       </c>
-      <c r="B16" s="25" t="inlineStr">
+      <c r="B18" s="15" t="inlineStr">
         <is>
           <t>Database Management Systems</t>
         </is>
       </c>
-      <c r="C16" s="25" t="inlineStr">
-        <is>
-          <t>Dr. Abdul Wahid</t>
-        </is>
-      </c>
-      <c r="D16" s="25" t="inlineStr">
-        <is>
-          <t>LAB</t>
-        </is>
-      </c>
-      <c r="E16" s="25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="13" t="inlineStr">
-        <is>
-          <t>Legend</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="14" t="inlineStr">
-        <is>
-          <t>Subject Code</t>
-        </is>
-      </c>
-      <c r="B21" s="14" t="inlineStr">
-        <is>
-          <t>Subject Name</t>
-        </is>
-      </c>
-      <c r="C21" s="14" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-      <c r="D21" s="14" t="inlineStr">
-        <is>
-          <t>Color</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="25" customHeight="1">
-      <c r="A22" s="15" t="inlineStr">
-        <is>
-          <t>MA202</t>
-        </is>
-      </c>
-      <c r="B22" s="15" t="inlineStr">
-        <is>
-          <t>Linear Algebra</t>
-        </is>
-      </c>
-      <c r="C22" s="15" t="inlineStr">
-        <is>
-          <t>Dr. Anand Barangi</t>
-        </is>
-      </c>
-      <c r="D22" s="16" t="inlineStr"/>
-    </row>
-    <row r="23" ht="25" customHeight="1">
-      <c r="A23" s="15" t="inlineStr">
-        <is>
-          <t>CS206</t>
-        </is>
-      </c>
-      <c r="B23" s="15" t="inlineStr">
-        <is>
-          <t>Theory of Computing</t>
-        </is>
-      </c>
-      <c r="C23" s="15" t="inlineStr">
-        <is>
-          <t>Dr. Pavan</t>
-        </is>
-      </c>
-      <c r="D23" s="17" t="inlineStr"/>
-    </row>
-    <row r="24" ht="25" customHeight="1">
-      <c r="A24" s="15" t="inlineStr">
-        <is>
-          <t>CS204</t>
-        </is>
-      </c>
-      <c r="B24" s="15" t="inlineStr">
-        <is>
-          <t>Operating Systems</t>
-        </is>
-      </c>
-      <c r="C24" s="15" t="inlineStr">
-        <is>
-          <t>Dr. Suvadeep</t>
-        </is>
-      </c>
-      <c r="D24" s="18" t="inlineStr"/>
-    </row>
-    <row r="25" ht="25" customHeight="1">
-      <c r="A25" s="15" t="inlineStr">
-        <is>
-          <t>CS301</t>
-        </is>
-      </c>
-      <c r="B25" s="15" t="inlineStr">
-        <is>
-          <t>Software Engineering</t>
-        </is>
-      </c>
-      <c r="C25" s="15" t="inlineStr">
-        <is>
-          <t>Dr. Vivekraj</t>
-        </is>
-      </c>
-      <c r="D25" s="19" t="inlineStr"/>
-    </row>
-    <row r="26" ht="25" customHeight="1">
-      <c r="A26" s="15" t="inlineStr">
-        <is>
-          <t>CS310</t>
-        </is>
-      </c>
-      <c r="B26" s="15" t="inlineStr">
-        <is>
-          <t>Database Management Systems</t>
-        </is>
-      </c>
-      <c r="C26" s="15" t="inlineStr">
+      <c r="C18" s="15" t="inlineStr">
         <is>
           <t>Dr. Pramod/Dr. Abdul Wahid</t>
         </is>
       </c>
-      <c r="D26" s="20" t="inlineStr"/>
-    </row>
-    <row r="27" ht="25" customHeight="1">
-      <c r="A27" s="15" t="inlineStr">
+      <c r="D18" s="20" t="inlineStr"/>
+    </row>
+    <row r="19" ht="25" customHeight="1">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>HS205</t>
         </is>
       </c>
-      <c r="B27" s="15" t="inlineStr">
+      <c r="B19" s="15" t="inlineStr">
         <is>
           <t>Ethics</t>
         </is>
       </c>
-      <c r="C27" s="15" t="inlineStr">
+      <c r="C19" s="15" t="inlineStr">
         <is>
           <t>Dr. Jolly Thomas, IIT Dharwad</t>
         </is>
       </c>
-      <c r="D27" s="21" t="inlineStr"/>
+      <c r="D19" s="21" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="B6:C6"/>
+  <mergeCells count="18">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="O5:Q5"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="Q3:T3"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="R6:T6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3252,7 +3182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3390,57 +3320,57 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="10" t="inlineStr">
-        <is>
-          <t>CS307 LEC
+      <c r="B2" s="7" t="inlineStr"/>
+      <c r="C2" s="7" t="inlineStr"/>
+      <c r="D2" s="7" t="inlineStr"/>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr"/>
+      <c r="G2" s="7" t="inlineStr"/>
+      <c r="H2" s="7" t="inlineStr"/>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M2" s="7" t="inlineStr"/>
+      <c r="N2" s="9" t="inlineStr">
+        <is>
+          <t>B4 LEC
 H109
-Dr. Girish GN</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="4" t="n"/>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F2" s="8" t="inlineStr"/>
-      <c r="G2" s="8" t="inlineStr"/>
-      <c r="H2" s="8" t="inlineStr"/>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="inlineStr"/>
-      <c r="N2" s="8" t="inlineStr"/>
-      <c r="O2" s="9" t="inlineStr">
-        <is>
-          <t>B1 LEC
-C104
-Chinmayanand</t>
-        </is>
-      </c>
-      <c r="P2" s="3" t="n"/>
-      <c r="Q2" s="4" t="n"/>
-      <c r="R2" s="8" t="inlineStr"/>
-      <c r="S2" s="8" t="inlineStr"/>
-      <c r="T2" s="8" t="inlineStr"/>
+Dr. Sunil CK</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="n"/>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="7" t="inlineStr"/>
+      <c r="R2" s="12" t="inlineStr">
+        <is>
+          <t>B3 LEC
+C101
+Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="n"/>
+      <c r="T2" s="4" t="n"/>
     </row>
     <row r="3" ht="40" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -3448,281 +3378,281 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="12" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>B1 LEC
+C201
+Chinmayanand</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>B2 TUT
+H109
+Dr. Rajendra H</t>
+        </is>
+      </c>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="7" t="inlineStr"/>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M3" s="7" t="inlineStr"/>
+      <c r="N3" s="6" t="inlineStr">
+        <is>
+          <t>B2 LEC
+H109
+Dr. Rajendra H</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="4" t="n"/>
+      <c r="Q3" s="7" t="inlineStr"/>
+      <c r="R3" s="7" t="inlineStr"/>
+      <c r="S3" s="7" t="inlineStr"/>
+      <c r="T3" s="7" t="inlineStr"/>
+    </row>
+    <row r="4" ht="40" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>B1 LEC
+H109
+Chinmayanand</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr"/>
+      <c r="G4" s="7" t="inlineStr"/>
+      <c r="H4" s="7" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="inlineStr"/>
+      <c r="N4" s="7" t="inlineStr"/>
+      <c r="O4" s="7" t="inlineStr"/>
+      <c r="P4" s="10" t="inlineStr">
+        <is>
+          <t>CS307 LAB
+L306+L307
+Dr. Girish GN</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="n"/>
+      <c r="R4" s="3" t="n"/>
+      <c r="S4" s="4" t="n"/>
+      <c r="T4" s="7" t="inlineStr"/>
+    </row>
+    <row r="5" ht="40" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr"/>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>B4 TUT
+C201
+Dr. Sunil CK</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="inlineStr">
         <is>
           <t>B3 LEC
 C201
 Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="inlineStr">
-        <is>
-          <t>B1 LEC
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M5" s="12" t="inlineStr">
+        <is>
+          <t>B3 TUT
+C102
+Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
+        </is>
+      </c>
+      <c r="N5" s="4" t="n"/>
+      <c r="O5" s="7" t="inlineStr"/>
+      <c r="P5" s="7" t="inlineStr"/>
+      <c r="Q5" s="10" t="inlineStr">
+        <is>
+          <t>CS307 LEC
 C201
-Chinmayanand</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L3" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M3" s="8" t="inlineStr"/>
-      <c r="N3" s="8" t="inlineStr"/>
-      <c r="O3" s="11" t="inlineStr">
-        <is>
-          <t>B2 TUT
-C201
-Dr. Rajendra H</t>
-        </is>
-      </c>
-      <c r="P3" s="4" t="n"/>
-      <c r="Q3" s="8" t="inlineStr"/>
-      <c r="R3" s="8" t="inlineStr"/>
-      <c r="S3" s="8" t="inlineStr"/>
-      <c r="T3" s="8" t="inlineStr"/>
-    </row>
-    <row r="4" ht="40" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
+Dr. Girish GN</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="n"/>
+      <c r="S5" s="4" t="n"/>
+      <c r="T5" s="7" t="inlineStr"/>
+    </row>
+    <row r="6" ht="40" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>B2 LEC
 H109
 Dr. Rajendra H</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="C6" s="3" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="F6" s="9" t="inlineStr">
         <is>
           <t>B4 LEC
 C201
 Dr. Sunil CK</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L4" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M4" s="7" t="inlineStr">
-        <is>
-          <t>B4 TUT
-C104
-Dr. Sunil CK</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="8" t="inlineStr"/>
-      <c r="P4" s="12" t="inlineStr">
-        <is>
-          <t>B3 LEC
-C201
-Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
-        </is>
-      </c>
-      <c r="Q4" s="3" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="8" t="inlineStr"/>
-      <c r="T4" s="8" t="inlineStr"/>
-    </row>
-    <row r="5" ht="40" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="B5" s="8" t="inlineStr"/>
-      <c r="C5" s="8" t="inlineStr"/>
-      <c r="D5" s="8" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F5" s="10" t="inlineStr">
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>BREAK</t>
+        </is>
+      </c>
+      <c r="M6" s="7" t="inlineStr"/>
+      <c r="N6" s="10" t="inlineStr">
         <is>
           <t>CS307 LEC
 C201
 Dr. Girish GN</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M5" s="8" t="inlineStr"/>
-      <c r="N5" s="8" t="inlineStr"/>
-      <c r="O5" s="8" t="inlineStr"/>
-      <c r="P5" s="11" t="inlineStr">
-        <is>
-          <t>B2 LEC
+      <c r="O6" s="3" t="n"/>
+      <c r="P6" s="4" t="n"/>
+      <c r="Q6" s="11" t="inlineStr">
+        <is>
+          <t>B1 TUT
 H109
-Dr. Rajendra H</t>
-        </is>
-      </c>
-      <c r="Q5" s="3" t="n"/>
-      <c r="R5" s="4" t="n"/>
-      <c r="S5" s="8" t="inlineStr"/>
-      <c r="T5" s="8" t="inlineStr"/>
-    </row>
-    <row r="6" ht="40" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>B4 LEC
-C201
-Dr. Sunil CK</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="F6" s="9" t="inlineStr">
-        <is>
-          <t>B1 TUT
-C104
 Chinmayanand</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="8" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="K6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="L6" s="5" t="inlineStr">
-        <is>
-          <t>BREAK</t>
-        </is>
-      </c>
-      <c r="M6" s="8" t="inlineStr"/>
-      <c r="N6" s="10" t="inlineStr">
-        <is>
-          <t>CS307 LAB
-L106+L107
-Dr. Girish GN</t>
-        </is>
-      </c>
-      <c r="O6" s="3" t="n"/>
-      <c r="P6" s="3" t="n"/>
-      <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="12" t="inlineStr">
-        <is>
-          <t>B3 TUT
-H109
-Mr. Jagadeesh K (Dr Sibasankar Padhy)</t>
-        </is>
-      </c>
-      <c r="S6" s="4" t="n"/>
-      <c r="T6" s="8" t="inlineStr"/>
+      <c r="R6" s="4" t="n"/>
+      <c r="S6" s="7" t="inlineStr"/>
+      <c r="T6" s="7" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="26" t="inlineStr">
+      <c r="A9" s="23" t="inlineStr">
         <is>
           <t>Self-Study Only Courses</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="26" t="inlineStr">
+      <c r="A10" s="23" t="inlineStr">
         <is>
           <t>Course Code</t>
         </is>
       </c>
-      <c r="B10" s="26" t="inlineStr">
+      <c r="B10" s="23" t="inlineStr">
         <is>
           <t>Course Name</t>
         </is>
       </c>
-      <c r="C10" s="26" t="inlineStr">
+      <c r="C10" s="23" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
@@ -3745,194 +3675,160 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="13" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+    </row>
     <row r="18">
-      <c r="A18" s="23" t="inlineStr">
-        <is>
-          <t>Unscheduled Components</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B20" s="24" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C20" s="24" t="inlineStr">
+      <c r="A18" s="14" t="inlineStr">
+        <is>
+          <t>Subject Code</t>
+        </is>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>Subject Name</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
       </c>
-      <c r="D20" s="24" t="inlineStr">
-        <is>
-          <t>Component</t>
-        </is>
-      </c>
-      <c r="E20" s="24" t="inlineStr">
-        <is>
-          <t>Sessions</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="inlineStr">
-        <is>
-          <t>Legend</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="inlineStr">
-        <is>
-          <t>Subject Code</t>
-        </is>
-      </c>
-      <c r="B25" s="14" t="inlineStr">
-        <is>
-          <t>Subject Name</t>
-        </is>
-      </c>
-      <c r="C25" s="14" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-      <c r="D25" s="14" t="inlineStr">
+      <c r="D18" s="14" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="25" customHeight="1">
-      <c r="A26" s="15" t="inlineStr">
+    <row r="19" ht="25" customHeight="1">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>CS307</t>
         </is>
       </c>
-      <c r="B26" s="15" t="inlineStr">
+      <c r="B19" s="15" t="inlineStr">
         <is>
           <t>Machine Learning</t>
         </is>
       </c>
-      <c r="C26" s="15" t="inlineStr">
+      <c r="C19" s="15" t="inlineStr">
         <is>
           <t>Dr. Girish GN</t>
         </is>
       </c>
-      <c r="D26" s="16" t="inlineStr"/>
-    </row>
-    <row r="27" ht="25" customHeight="1">
-      <c r="A27" s="15" t="inlineStr">
+      <c r="D19" s="16" t="inlineStr"/>
+    </row>
+    <row r="20" ht="25" customHeight="1">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>B1</t>
         </is>
       </c>
-      <c r="B27" s="15" t="inlineStr">
+      <c r="B20" s="15" t="inlineStr">
         <is>
           <t>Deep Learning for Computer Vision/Large Languange Models/Natural Language Processing/Deep Speech Processing/CMOS RF Circuit Design</t>
         </is>
       </c>
-      <c r="C27" s="15" t="inlineStr">
+      <c r="C20" s="15" t="inlineStr">
         <is>
           <t>Chinmayanand/Dr. Sunil S/Dr. Krishnendu/Dr. Pankaj Kumar and Dr. Rajesh Kumar/Prof. SRM Prasanna</t>
         </is>
       </c>
-      <c r="D27" s="17" t="inlineStr"/>
-    </row>
-    <row r="28" ht="25" customHeight="1">
-      <c r="A28" s="15" t="inlineStr">
+      <c r="D20" s="17" t="inlineStr"/>
+    </row>
+    <row r="21" ht="25" customHeight="1">
+      <c r="A21" s="15" t="inlineStr">
         <is>
           <t>B2</t>
         </is>
       </c>
-      <c r="B28" s="15" t="inlineStr">
+      <c r="B21" s="15" t="inlineStr">
         <is>
           <t>Blockchain Technology/Introduction to 5G Network/Model Checking/Quantum Communication/Quantum HPC and AI/Design Thinking and Innovation</t>
         </is>
       </c>
-      <c r="C28" s="15" t="inlineStr">
+      <c r="C21" s="15" t="inlineStr">
         <is>
           <t>Dr. Rajendra H/Dr. Jagadeesha R Bhat/Dr. Pavan/Dr. Aswath B/Dr. Manish M (Dr. Aswath)/Dr. Sandesh P</t>
         </is>
       </c>
-      <c r="D28" s="18" t="inlineStr"/>
-    </row>
-    <row r="29" ht="25" customHeight="1">
-      <c r="A29" s="15" t="inlineStr">
+      <c r="D21" s="18" t="inlineStr"/>
+    </row>
+    <row r="22" ht="25" customHeight="1">
+      <c r="A22" s="15" t="inlineStr">
         <is>
           <t>B3</t>
         </is>
       </c>
-      <c r="B29" s="15" t="inlineStr">
+      <c r="B22" s="15" t="inlineStr">
         <is>
           <t>Automotive Embedded and Multimedia Systems/Microwave Engineering/Computer Graphics/Machine learning/Virtualization and Cloud Computing</t>
         </is>
       </c>
-      <c r="C29" s="15" t="inlineStr">
+      <c r="C22" s="15" t="inlineStr">
         <is>
           <t>Mr. Jagadeesh K (Dr Sibasankar Padhy)/Dr. Somen/Dr. Vivekraj V K/Dr. Deepak KT/Dr Malay</t>
         </is>
       </c>
-      <c r="D29" s="19" t="inlineStr"/>
-    </row>
-    <row r="30" ht="25" customHeight="1">
-      <c r="A30" s="15" t="inlineStr">
+      <c r="D22" s="19" t="inlineStr"/>
+    </row>
+    <row r="23" ht="25" customHeight="1">
+      <c r="A23" s="15" t="inlineStr">
         <is>
           <t>B4</t>
         </is>
       </c>
-      <c r="B30" s="15" t="inlineStr">
+      <c r="B23" s="15" t="inlineStr">
         <is>
           <t>Data Analytics and Visualization/Statistics for Health Technology/Medical Image Analysis/Bioinformatics</t>
         </is>
       </c>
-      <c r="C30" s="15" t="inlineStr">
+      <c r="C23" s="15" t="inlineStr">
         <is>
           <t>Dr. Sunil CK/Dr. Ramesh Athe/Dr. Girish GN/Dr. Sunil Kumar PV</t>
         </is>
       </c>
-      <c r="D30" s="20" t="inlineStr"/>
-    </row>
-    <row r="31" ht="25" customHeight="1">
-      <c r="A31" s="15" t="inlineStr">
+      <c r="D23" s="20" t="inlineStr"/>
+    </row>
+    <row r="24" ht="25" customHeight="1">
+      <c r="A24" s="15" t="inlineStr">
         <is>
           <t>Mini Project 1</t>
         </is>
       </c>
-      <c r="B31" s="15" t="inlineStr">
+      <c r="B24" s="15" t="inlineStr">
         <is>
           <t>Mini Project 1</t>
         </is>
       </c>
-      <c r="C31" s="15" t="inlineStr">
+      <c r="C24" s="15" t="inlineStr">
         <is>
           <t>Pramod Yelmewad and Animesh Roy</t>
         </is>
       </c>
-      <c r="D31" s="21" t="inlineStr"/>
+      <c r="D24" s="21" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="N2:P2"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="M5:N5"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3944,7 +3840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4082,17 +3978,17 @@
           <t>Monday</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr"/>
-      <c r="C2" s="8" t="inlineStr"/>
-      <c r="D2" s="8" t="inlineStr"/>
+      <c r="B2" s="7" t="inlineStr"/>
+      <c r="C2" s="7" t="inlineStr"/>
+      <c r="D2" s="7" t="inlineStr"/>
       <c r="E2" s="5" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr"/>
-      <c r="G2" s="8" t="inlineStr"/>
-      <c r="H2" s="8" t="inlineStr"/>
+      <c r="F2" s="7" t="inlineStr"/>
+      <c r="G2" s="7" t="inlineStr"/>
+      <c r="H2" s="7" t="inlineStr"/>
       <c r="I2" s="5" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -4113,14 +4009,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="M2" s="8" t="inlineStr"/>
-      <c r="N2" s="8" t="inlineStr"/>
-      <c r="O2" s="8" t="inlineStr"/>
-      <c r="P2" s="8" t="inlineStr"/>
-      <c r="Q2" s="8" t="inlineStr"/>
-      <c r="R2" s="8" t="inlineStr"/>
-      <c r="S2" s="8" t="inlineStr"/>
-      <c r="T2" s="8" t="inlineStr"/>
+      <c r="M2" s="7" t="inlineStr"/>
+      <c r="N2" s="7" t="inlineStr"/>
+      <c r="O2" s="7" t="inlineStr"/>
+      <c r="P2" s="7" t="inlineStr"/>
+      <c r="Q2" s="7" t="inlineStr"/>
+      <c r="R2" s="7" t="inlineStr"/>
+      <c r="S2" s="7" t="inlineStr"/>
+      <c r="T2" s="7" t="inlineStr"/>
     </row>
     <row r="3" ht="40" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -4128,17 +4024,17 @@
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr"/>
-      <c r="C3" s="8" t="inlineStr"/>
-      <c r="D3" s="8" t="inlineStr"/>
+      <c r="B3" s="7" t="inlineStr"/>
+      <c r="C3" s="7" t="inlineStr"/>
+      <c r="D3" s="7" t="inlineStr"/>
       <c r="E3" s="5" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr"/>
-      <c r="G3" s="8" t="inlineStr"/>
-      <c r="H3" s="8" t="inlineStr"/>
+      <c r="F3" s="7" t="inlineStr"/>
+      <c r="G3" s="7" t="inlineStr"/>
+      <c r="H3" s="7" t="inlineStr"/>
       <c r="I3" s="5" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -4159,14 +4055,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="M3" s="8" t="inlineStr"/>
-      <c r="N3" s="8" t="inlineStr"/>
-      <c r="O3" s="8" t="inlineStr"/>
-      <c r="P3" s="8" t="inlineStr"/>
-      <c r="Q3" s="8" t="inlineStr"/>
-      <c r="R3" s="8" t="inlineStr"/>
-      <c r="S3" s="8" t="inlineStr"/>
-      <c r="T3" s="8" t="inlineStr"/>
+      <c r="M3" s="7" t="inlineStr"/>
+      <c r="N3" s="7" t="inlineStr"/>
+      <c r="O3" s="7" t="inlineStr"/>
+      <c r="P3" s="7" t="inlineStr"/>
+      <c r="Q3" s="7" t="inlineStr"/>
+      <c r="R3" s="7" t="inlineStr"/>
+      <c r="S3" s="7" t="inlineStr"/>
+      <c r="T3" s="7" t="inlineStr"/>
     </row>
     <row r="4" ht="40" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -4174,17 +4070,17 @@
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr"/>
-      <c r="C4" s="8" t="inlineStr"/>
-      <c r="D4" s="8" t="inlineStr"/>
+      <c r="B4" s="7" t="inlineStr"/>
+      <c r="C4" s="7" t="inlineStr"/>
+      <c r="D4" s="7" t="inlineStr"/>
       <c r="E4" s="5" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr"/>
-      <c r="G4" s="8" t="inlineStr"/>
-      <c r="H4" s="8" t="inlineStr"/>
+      <c r="F4" s="7" t="inlineStr"/>
+      <c r="G4" s="7" t="inlineStr"/>
+      <c r="H4" s="7" t="inlineStr"/>
       <c r="I4" s="5" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -4205,14 +4101,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="M4" s="8" t="inlineStr"/>
-      <c r="N4" s="8" t="inlineStr"/>
-      <c r="O4" s="8" t="inlineStr"/>
-      <c r="P4" s="8" t="inlineStr"/>
-      <c r="Q4" s="8" t="inlineStr"/>
-      <c r="R4" s="8" t="inlineStr"/>
-      <c r="S4" s="8" t="inlineStr"/>
-      <c r="T4" s="8" t="inlineStr"/>
+      <c r="M4" s="7" t="inlineStr"/>
+      <c r="N4" s="7" t="inlineStr"/>
+      <c r="O4" s="7" t="inlineStr"/>
+      <c r="P4" s="7" t="inlineStr"/>
+      <c r="Q4" s="7" t="inlineStr"/>
+      <c r="R4" s="7" t="inlineStr"/>
+      <c r="S4" s="7" t="inlineStr"/>
+      <c r="T4" s="7" t="inlineStr"/>
     </row>
     <row r="5" ht="40" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -4220,17 +4116,17 @@
           <t>Thursday</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr"/>
-      <c r="C5" s="8" t="inlineStr"/>
-      <c r="D5" s="8" t="inlineStr"/>
+      <c r="B5" s="7" t="inlineStr"/>
+      <c r="C5" s="7" t="inlineStr"/>
+      <c r="D5" s="7" t="inlineStr"/>
       <c r="E5" s="5" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F5" s="8" t="inlineStr"/>
-      <c r="G5" s="8" t="inlineStr"/>
-      <c r="H5" s="8" t="inlineStr"/>
+      <c r="F5" s="7" t="inlineStr"/>
+      <c r="G5" s="7" t="inlineStr"/>
+      <c r="H5" s="7" t="inlineStr"/>
       <c r="I5" s="5" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -4251,14 +4147,14 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="M5" s="8" t="inlineStr"/>
-      <c r="N5" s="8" t="inlineStr"/>
-      <c r="O5" s="8" t="inlineStr"/>
-      <c r="P5" s="8" t="inlineStr"/>
-      <c r="Q5" s="8" t="inlineStr"/>
-      <c r="R5" s="8" t="inlineStr"/>
-      <c r="S5" s="8" t="inlineStr"/>
-      <c r="T5" s="8" t="inlineStr"/>
+      <c r="M5" s="7" t="inlineStr"/>
+      <c r="N5" s="7" t="inlineStr"/>
+      <c r="O5" s="7" t="inlineStr"/>
+      <c r="P5" s="7" t="inlineStr"/>
+      <c r="Q5" s="7" t="inlineStr"/>
+      <c r="R5" s="7" t="inlineStr"/>
+      <c r="S5" s="7" t="inlineStr"/>
+      <c r="T5" s="7" t="inlineStr"/>
     </row>
     <row r="6" ht="40" customHeight="1">
       <c r="A6" t="inlineStr">
@@ -4266,17 +4162,17 @@
           <t>Friday</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr"/>
-      <c r="C6" s="8" t="inlineStr"/>
-      <c r="D6" s="8" t="inlineStr"/>
+      <c r="B6" s="7" t="inlineStr"/>
+      <c r="C6" s="7" t="inlineStr"/>
+      <c r="D6" s="7" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr">
         <is>
           <t>BREAK</t>
         </is>
       </c>
-      <c r="F6" s="8" t="inlineStr"/>
-      <c r="G6" s="8" t="inlineStr"/>
-      <c r="H6" s="8" t="inlineStr"/>
+      <c r="F6" s="7" t="inlineStr"/>
+      <c r="G6" s="7" t="inlineStr"/>
+      <c r="H6" s="7" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr">
         <is>
           <t>BREAK</t>
@@ -4297,34 +4193,34 @@
           <t>BREAK</t>
         </is>
       </c>
-      <c r="M6" s="8" t="inlineStr"/>
-      <c r="N6" s="8" t="inlineStr"/>
-      <c r="O6" s="8" t="inlineStr"/>
-      <c r="P6" s="8" t="inlineStr"/>
-      <c r="Q6" s="8" t="inlineStr"/>
-      <c r="R6" s="8" t="inlineStr"/>
-      <c r="S6" s="8" t="inlineStr"/>
-      <c r="T6" s="8" t="inlineStr"/>
+      <c r="M6" s="7" t="inlineStr"/>
+      <c r="N6" s="7" t="inlineStr"/>
+      <c r="O6" s="7" t="inlineStr"/>
+      <c r="P6" s="7" t="inlineStr"/>
+      <c r="Q6" s="7" t="inlineStr"/>
+      <c r="R6" s="7" t="inlineStr"/>
+      <c r="S6" s="7" t="inlineStr"/>
+      <c r="T6" s="7" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="26" t="inlineStr">
+      <c r="A9" s="23" t="inlineStr">
         <is>
           <t>Self-Study Only Courses</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="26" t="inlineStr">
+      <c r="A10" s="23" t="inlineStr">
         <is>
           <t>Course Code</t>
         </is>
       </c>
-      <c r="B10" s="26" t="inlineStr">
+      <c r="B10" s="23" t="inlineStr">
         <is>
           <t>Course Name</t>
         </is>
       </c>
-      <c r="C10" s="26" t="inlineStr">
+      <c r="C10" s="23" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
@@ -4347,86 +4243,52 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="13" t="inlineStr">
+        <is>
+          <t>Legend</t>
+        </is>
+      </c>
+    </row>
     <row r="18">
-      <c r="A18" s="23" t="inlineStr">
-        <is>
-          <t>Unscheduled Components</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="24" t="inlineStr">
-        <is>
-          <t>Course Code</t>
-        </is>
-      </c>
-      <c r="B20" s="24" t="inlineStr">
-        <is>
-          <t>Course Name</t>
-        </is>
-      </c>
-      <c r="C20" s="24" t="inlineStr">
+      <c r="A18" s="14" t="inlineStr">
+        <is>
+          <t>Subject Code</t>
+        </is>
+      </c>
+      <c r="B18" s="14" t="inlineStr">
+        <is>
+          <t>Subject Name</t>
+        </is>
+      </c>
+      <c r="C18" s="14" t="inlineStr">
         <is>
           <t>Faculty</t>
         </is>
       </c>
-      <c r="D20" s="24" t="inlineStr">
-        <is>
-          <t>Component</t>
-        </is>
-      </c>
-      <c r="E20" s="24" t="inlineStr">
-        <is>
-          <t>Sessions</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="inlineStr">
-        <is>
-          <t>Legend</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="inlineStr">
-        <is>
-          <t>Subject Code</t>
-        </is>
-      </c>
-      <c r="B25" s="14" t="inlineStr">
-        <is>
-          <t>Subject Name</t>
-        </is>
-      </c>
-      <c r="C25" s="14" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-      <c r="D25" s="14" t="inlineStr">
+      <c r="D18" s="14" t="inlineStr">
         <is>
           <t>Color</t>
         </is>
       </c>
     </row>
-    <row r="26" ht="25" customHeight="1">
-      <c r="A26" s="15" t="inlineStr">
+    <row r="19" ht="25" customHeight="1">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>CS499</t>
         </is>
       </c>
-      <c r="B26" s="15" t="inlineStr">
+      <c r="B19" s="15" t="inlineStr">
         <is>
           <t>Major-Project</t>
         </is>
       </c>
-      <c r="C26" s="15" t="inlineStr">
+      <c r="C19" s="15" t="inlineStr">
         <is>
           <t>Dr. Pramod Yelmewad and Dr. Animesh Roy</t>
         </is>
       </c>
-      <c r="D26" s="16" t="inlineStr"/>
+      <c r="D19" s="16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
